--- a/www/ig/fhir/eclaire/StructureDefinition-eclaire-group.xlsx
+++ b/www/ig/fhir/eclaire/StructureDefinition-eclaire-group.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T12:15:34+00:00</t>
+    <t>2023-10-24T08:19:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/eclaire/StructureDefinition-eclaire-group.xlsx
+++ b/www/ig/fhir/eclaire/StructureDefinition-eclaire-group.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$34</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="281">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-24T08:19:05+00:00</t>
+    <t>2024-02-26T13:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,6 +262,10 @@
     <t>If both Group.characteristic and Group.member are present, then the members are the individuals who were found who met the characteristic.  It's possible that there might be other candidate members who meet the characteristic and aren't (yet) in the list.  All members SHALL have the listed characteristics.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}grp-1:Can only have members if group is "actual" {member.empty() or (actual = true)}</t>
+  </si>
+  <si>
     <t>Entity[determinerCode="GRP" or determinerCode="GRP_KIND"]</t>
   </si>
   <si>
@@ -303,10 +310,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Group.implicitRules</t>
   </si>
   <si>
@@ -326,6 +340,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Group.language</t>
   </si>
   <si>
@@ -403,9 +420,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Group.extension</t>
   </si>
   <si>
@@ -426,6 +440,16 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -538,8 +562,8 @@
     <t>There are use-cases for groups that define specific collections of individuals, and other groups that define "types" of intended individuals.  The requirements for both kinds of groups are similar, so we use a single resource, distinguished by this flag.</t>
   </si>
   <si>
-    <t xml:space="preserve">grp-1
-</t>
+    <t>ele-1
+grp-1</t>
   </si>
   <si>
     <t>true: ./determinerCode="GRP"  false: ./determinerCode="GRP_KIND"</t>
@@ -586,6 +610,9 @@
     <t>A label assigned to the group for human identification and communication.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>Used to identify the group in human communication.</t>
   </si>
   <si>
@@ -630,6 +657,13 @@
     <t>This does not strictly align with ownership of a herd or flock, but may suffice to represent that relationship in simple cases. More complex cases will require an extension.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
+  </si>
+  <si>
     <t>Group.characteristic</t>
   </si>
   <si>
@@ -664,9 +698,6 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Group.characteristic.extension</t>
   </si>
   <si>
@@ -702,13 +733,16 @@
     <t>A code that identifies the kind of trait being asserted.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>Need a formal way of identifying the characteristic being described.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-study-population-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-group-characteristic-kind-vs</t>
   </si>
   <si>
     <t>Group.characteristic.value[x]</t>
@@ -733,7 +767,20 @@
     <t>Value of descriptive member characteristic; e.g. red, male, pneumonia, Caucasian, etc.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t>./value</t>
+  </si>
+  <si>
+    <t>Group.characteristic.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-study-population-vs</t>
   </si>
   <si>
     <t>Group.characteristic.exclude</t>
@@ -767,6 +814,17 @@
     <t>The period over which the characteristic is tested; e.g. the patient had an operation during the month of June.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
+    <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
+  </si>
+  <si>
     <t>Group.member</t>
   </si>
   <si>
@@ -802,6 +860,9 @@
   </si>
   <si>
     <t>A reference to the entity that is a member of the group. Must be consistent with Group.type. If the entity is another group, then the type must be the same.</t>
+  </si>
+  <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
   </si>
   <si>
     <t>Group.member.period</t>
@@ -953,13 +1014,28 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1134,7 +1210,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL33"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1143,9 +1219,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.9296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.66015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1168,10 +1244,10 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="81.36328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="75.2734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="82.8359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1298,7 +1374,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -1397,21 +1473,21 @@
         <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1422,7 +1498,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1431,19 +1507,19 @@
         <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1493,13 +1569,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1514,12 +1590,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1530,7 +1606,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -1539,16 +1615,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1599,33 +1675,33 @@
         <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1636,28 +1712,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1707,33 +1783,33 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1744,7 +1820,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -1756,16 +1832,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1791,13 +1867,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -1815,44 +1891,44 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -1864,16 +1940,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1923,37 +1999,37 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1972,16 +2048,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2031,7 +2107,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2046,22 +2122,22 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2080,16 +2156,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2127,19 +2203,19 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2148,28 +2224,28 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2182,25 +2258,25 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2237,19 +2313,19 @@
         <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2258,24 +2334,24 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2295,20 +2371,20 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2357,7 +2433,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2366,24 +2442,24 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2394,7 +2470,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -2403,26 +2479,26 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q12" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>74</v>
@@ -2467,33 +2543,33 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2501,10 +2577,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -2513,22 +2589,22 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>74</v>
@@ -2553,57 +2629,57 @@
         <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Y13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="AG13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2611,10 +2687,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
@@ -2623,20 +2699,20 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>74</v>
@@ -2685,33 +2761,33 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AL14" t="s" s="2">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2722,7 +2798,7 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -2731,19 +2807,19 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2769,57 +2845,57 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2830,7 +2906,7 @@
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -2839,20 +2915,22 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -2901,33 +2979,33 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2938,7 +3016,7 @@
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -2947,22 +3025,22 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -3011,33 +3089,33 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3048,7 +3126,7 @@
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3057,19 +3135,19 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3119,33 +3197,33 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3168,19 +3246,19 @@
         <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>74</v>
@@ -3229,7 +3307,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3238,24 +3316,24 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3266,7 +3344,7 @@
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3278,13 +3356,13 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3335,13 +3413,13 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>74</v>
@@ -3350,22 +3428,22 @@
         <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3384,16 +3462,16 @@
         <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3431,19 +3509,19 @@
         <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3452,28 +3530,28 @@
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3486,25 +3564,25 @@
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>74</v>
@@ -3553,7 +3631,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3562,24 +3640,24 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3587,13 +3665,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>74</v>
@@ -3602,17 +3680,19 @@
         <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -3637,11 +3717,11 @@
         <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>74</v>
@@ -3659,33 +3739,33 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3693,10 +3773,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -3708,19 +3788,19 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -3745,10 +3825,10 @@
         <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
@@ -3757,59 +3837,59 @@
         <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>74</v>
@@ -3818,19 +3898,19 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -3855,13 +3935,11 @@
         <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>74</v>
@@ -3879,33 +3957,33 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3913,10 +3991,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -3928,16 +4006,20 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
       </c>
@@ -3985,33 +4067,33 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4022,7 +4104,7 @@
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -4034,18 +4116,18 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4093,33 +4175,33 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>256</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4130,7 +4212,7 @@
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4142,16 +4224,18 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
       </c>
@@ -4199,44 +4283,44 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4248,17 +4332,15 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -4307,37 +4389,37 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4350,26 +4432,24 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4405,19 +4485,19 @@
         <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4426,56 +4506,60 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
       </c>
@@ -4523,33 +4607,33 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4557,10 +4641,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -4572,24 +4656,22 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q32" t="s" s="2">
-        <v>258</v>
-      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
         <v>74</v>
       </c>
@@ -4633,33 +4715,33 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4670,7 +4752,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -4682,23 +4764,25 @@
         <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q33" t="s" s="2">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>74</v>
@@ -4743,28 +4827,156 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>95</v>
+        <v>256</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
       </c>
     </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q34" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AL34">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI33">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>